--- a/reference/Sri Balaji/ItemList.xlsx
+++ b/reference/Sri Balaji/ItemList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MetricProject\reference\Sri Balaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69AE2D5-4634-42D2-B63D-D1A9D7920A4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE2296-6B77-41FC-B53D-9119EA8AF5AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{1C85A252-400C-4997-9E9C-F2FFB6F92724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1C85A252-400C-4997-9E9C-F2FFB6F92724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12657" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12657" uniqueCount="1668">
   <si>
     <t>attribute</t>
   </si>
@@ -4984,6 +4984,54 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccab</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccac</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccad</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccae</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb0</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb3</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccaf</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb1</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb2</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb4</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb5</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb6</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb7</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb8</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccb9</t>
+  </si>
+  <si>
+    <t>65a1236bc70230ea4df8ccba</t>
   </si>
 </sst>
 </file>
@@ -5459,47 +5507,47 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="3"/>
+    <col min="5" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="19" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="23.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="19.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="3" customWidth="1"/>
     <col min="26" max="26" width="14" style="3" customWidth="1"/>
-    <col min="27" max="27" width="17.109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.5546875" customWidth="1"/>
-    <col min="31" max="32" width="20.88671875" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="31.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" customWidth="1"/>
+    <col min="31" max="32" width="20.85546875" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -5600,7 +5648,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="2" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -5682,7 +5730,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -5764,7 +5812,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -5846,7 +5894,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -5927,7 +5975,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -6014,7 +6062,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -6095,7 +6143,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -6176,7 +6224,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -6257,7 +6305,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -6344,7 +6392,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -6431,7 +6479,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -6518,7 +6566,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -6605,7 +6653,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
@@ -6692,7 +6740,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -6779,7 +6827,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -6866,7 +6914,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -6953,7 +7001,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -7034,7 +7082,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
@@ -7115,7 +7163,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -7196,7 +7244,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
@@ -7277,7 +7325,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>50</v>
       </c>
@@ -7356,7 +7404,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>50</v>
       </c>
@@ -7435,7 +7483,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -7514,7 +7562,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -7601,7 +7649,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -7685,7 +7733,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -7762,7 +7810,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
@@ -7840,7 +7888,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
@@ -7918,7 +7966,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>54</v>
       </c>
@@ -7995,7 +8043,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>55</v>
       </c>
@@ -8072,7 +8120,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -8153,7 +8201,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -8231,7 +8279,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -8312,7 +8360,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
@@ -8390,9 +8438,9 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1</v>
@@ -8470,9 +8518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
@@ -8550,9 +8598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
@@ -8630,9 +8678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1</v>
@@ -8710,9 +8758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
@@ -8790,9 +8838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1</v>
@@ -8870,9 +8918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1</v>
@@ -8950,9 +8998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
@@ -9030,9 +9078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>1</v>
@@ -9110,9 +9158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1</v>
@@ -9190,9 +9238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>1</v>
@@ -9270,9 +9318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>1</v>
@@ -9350,9 +9398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>1</v>
@@ -9430,9 +9478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1</v>
@@ -9510,9 +9558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1</v>
@@ -9590,9 +9638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -9670,9 +9718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1</v>
@@ -9750,9 +9798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>1</v>
@@ -9830,9 +9878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
@@ -9910,9 +9958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>1</v>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>1</v>
@@ -9990,9 +10038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
@@ -10070,9 +10118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
@@ -10150,9 +10198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1</v>
@@ -10230,9 +10278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1</v>
@@ -10310,9 +10358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1</v>
@@ -10390,9 +10438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>1</v>
@@ -10470,9 +10518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1</v>
@@ -10550,9 +10598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1</v>
@@ -10630,9 +10678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>1</v>
@@ -10710,9 +10758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
@@ -10790,9 +10838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
@@ -10870,9 +10918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1</v>
@@ -10950,9 +10998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>1</v>
@@ -11030,9 +11078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>1</v>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>1</v>
@@ -11110,9 +11158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>1</v>
@@ -11190,9 +11238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1</v>
@@ -11270,9 +11318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>1</v>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>1</v>
@@ -11350,9 +11398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1</v>
@@ -11430,9 +11478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1</v>
@@ -11510,9 +11558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1</v>
@@ -11590,9 +11638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>1</v>
@@ -11670,9 +11718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1</v>
@@ -11750,9 +11798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>1</v>
@@ -11830,9 +11878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1</v>
@@ -11910,9 +11958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1</v>
@@ -11990,9 +12038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1</v>
@@ -12070,9 +12118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1</v>
@@ -12150,9 +12198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>1</v>
@@ -12230,9 +12278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>1</v>
@@ -12310,9 +12358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1</v>
@@ -12390,9 +12438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
@@ -12470,9 +12518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
@@ -12550,9 +12598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1</v>
@@ -12630,9 +12678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1</v>
@@ -12710,9 +12758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
@@ -12790,9 +12838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
@@ -12870,9 +12918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1</v>
@@ -12950,9 +12998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>1</v>
@@ -13030,9 +13078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>1</v>
@@ -13110,9 +13158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>1</v>
@@ -13190,9 +13238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>1</v>
@@ -13270,9 +13318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>1</v>
@@ -13350,9 +13398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>1</v>
@@ -13430,9 +13478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>1</v>
@@ -13510,9 +13558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1</v>
@@ -13590,9 +13638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>1</v>
@@ -13670,9 +13718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
@@ -13750,9 +13798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1</v>
@@ -13830,9 +13878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1</v>
@@ -13910,9 +13958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1</v>
@@ -13990,9 +14038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>1</v>
@@ -14070,9 +14118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -14150,9 +14198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1</v>
@@ -14230,9 +14278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1</v>
@@ -14310,9 +14358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>1</v>
@@ -14390,9 +14438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>147</v>
+        <v>1653</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>147</v>
@@ -14470,9 +14518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>1</v>
@@ -14550,9 +14598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>1</v>
@@ -14630,9 +14678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>1</v>
@@ -14710,9 +14758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>1</v>
@@ -14790,9 +14838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>1</v>
@@ -14870,9 +14918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>1</v>
@@ -14950,9 +14998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
-        <v>1</v>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>1</v>
@@ -15030,9 +15078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
-        <v>1</v>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>1</v>
@@ -15110,9 +15158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>148</v>
@@ -15190,9 +15238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>148</v>
@@ -15270,9 +15318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>148</v>
@@ -15350,9 +15398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>148</v>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>148</v>
@@ -15430,9 +15478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
-        <v>148</v>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>148</v>
@@ -15510,9 +15558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
-        <v>148</v>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>148</v>
@@ -15590,9 +15638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>148</v>
@@ -15670,9 +15718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>148</v>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>148</v>
@@ -15750,9 +15798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>148</v>
@@ -15830,9 +15878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>148</v>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>148</v>
@@ -15910,9 +15958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>148</v>
@@ -15990,9 +16038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>148</v>
@@ -16070,9 +16118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>148</v>
@@ -16150,9 +16198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>148</v>
@@ -16230,9 +16278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>149</v>
+        <v>1655</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>149</v>
@@ -16310,9 +16358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>149</v>
+        <v>1655</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>149</v>
@@ -16390,9 +16438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>150</v>
@@ -16470,9 +16518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>150</v>
@@ -16550,9 +16598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>150</v>
@@ -16630,9 +16678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>150</v>
@@ -16710,9 +16758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>150</v>
@@ -16790,9 +16838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>150</v>
@@ -16870,9 +16918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>150</v>
@@ -16950,9 +16998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>150</v>
@@ -17030,9 +17078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>150</v>
@@ -17110,9 +17158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>150</v>
@@ -17190,9 +17238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>150</v>
@@ -17270,9 +17318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>150</v>
@@ -17350,9 +17398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>150</v>
@@ -17430,9 +17478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>150</v>
@@ -17510,9 +17558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>150</v>
@@ -17590,9 +17638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>151</v>
@@ -17670,9 +17718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>151</v>
@@ -17750,9 +17798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>151</v>
@@ -17830,9 +17878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>148</v>
@@ -17910,9 +17958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>152</v>
@@ -17990,9 +18038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>152</v>
@@ -18070,9 +18118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>152</v>
@@ -18150,9 +18198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>153</v>
@@ -18230,9 +18278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>153</v>
@@ -18310,9 +18358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>153</v>
@@ -18390,9 +18438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>153</v>
@@ -18470,9 +18518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>154</v>
@@ -18550,9 +18598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>154</v>
@@ -18630,9 +18678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>154</v>
@@ -18710,9 +18758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>154</v>
@@ -18790,9 +18838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>154</v>
@@ -18870,9 +18918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>154</v>
@@ -18950,9 +18998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>154</v>
@@ -19030,9 +19078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>154</v>
@@ -19110,9 +19158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>154</v>
@@ -19190,9 +19238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>154</v>
@@ -19270,9 +19318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>154</v>
@@ -19350,9 +19398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>154</v>
@@ -19430,9 +19478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>154</v>
@@ -19510,9 +19558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>154</v>
@@ -19590,9 +19638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>154</v>
@@ -19670,9 +19718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>154</v>
@@ -19750,9 +19798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A178" s="8" t="s">
-        <v>148</v>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>148</v>
@@ -19830,9 +19878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>148</v>
@@ -19910,9 +19958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>155</v>
+        <v>1661</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>155</v>
@@ -19990,9 +20038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>1</v>
@@ -20070,9 +20118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>1</v>
@@ -20150,9 +20198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>1</v>
@@ -20230,9 +20278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>1</v>
@@ -20310,9 +20358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>1</v>
@@ -20390,9 +20438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>1</v>
@@ -20470,9 +20518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>1</v>
@@ -20550,9 +20598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>1</v>
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>1</v>
@@ -20630,9 +20678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>1</v>
@@ -20710,9 +20758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>151</v>
@@ -20790,9 +20838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>1</v>
@@ -20870,9 +20918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>150</v>
@@ -20950,9 +20998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A193" s="8" t="s">
-        <v>148</v>
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>148</v>
@@ -21030,9 +21078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="s">
-        <v>148</v>
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>148</v>
@@ -21110,9 +21158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>148</v>
@@ -21190,9 +21238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>148</v>
@@ -21270,9 +21318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>1</v>
@@ -21350,9 +21398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>1</v>
@@ -21430,9 +21478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>1</v>
@@ -21510,9 +21558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>1</v>
@@ -21590,9 +21638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>1</v>
@@ -21670,9 +21718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>1</v>
@@ -21750,9 +21798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>1</v>
@@ -21830,9 +21878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>1</v>
@@ -21910,9 +21958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>1</v>
@@ -21990,9 +22038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>1</v>
@@ -22070,9 +22118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>1</v>
@@ -22150,9 +22198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>1</v>
@@ -22230,9 +22278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>1</v>
@@ -22310,9 +22358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>1</v>
@@ -22390,9 +22438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>1</v>
@@ -22470,9 +22518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>1</v>
@@ -22550,9 +22598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>1</v>
@@ -22630,9 +22678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>1</v>
@@ -22710,9 +22758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>1</v>
@@ -22790,9 +22838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>1</v>
@@ -22870,9 +22918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>1</v>
@@ -22950,9 +22998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>1</v>
@@ -23030,9 +23078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>154</v>
@@ -23110,9 +23158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>154</v>
@@ -23190,9 +23238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>154</v>
@@ -23270,9 +23318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>154</v>
@@ -23350,9 +23398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>154</v>
@@ -23430,9 +23478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>154</v>
@@ -23510,9 +23558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>154</v>
@@ -23590,9 +23638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>154</v>
@@ -23670,9 +23718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>154</v>
@@ -23750,9 +23798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>154</v>
@@ -23830,9 +23878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>154</v>
@@ -23910,9 +23958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>154</v>
@@ -23990,9 +24038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>154</v>
@@ -24070,9 +24118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>154</v>
@@ -24150,9 +24198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>154</v>
@@ -24230,9 +24278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>154</v>
@@ -24310,9 +24358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>154</v>
@@ -24390,9 +24438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>154</v>
@@ -24470,9 +24518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>154</v>
@@ -24550,9 +24598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>154</v>
@@ -24630,9 +24678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>154</v>
@@ -24710,9 +24758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>154</v>
@@ -24790,9 +24838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>154</v>
@@ -24870,9 +24918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>154</v>
@@ -24950,9 +24998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>154</v>
@@ -25030,9 +25078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>154</v>
@@ -25110,9 +25158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>154</v>
@@ -25190,9 +25238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>154</v>
@@ -25270,9 +25318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>154</v>
@@ -25350,9 +25398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>154</v>
@@ -25430,9 +25478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>154</v>
@@ -25510,9 +25558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>154</v>
@@ -25590,9 +25638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>154</v>
@@ -25670,9 +25718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>154</v>
@@ -25750,9 +25798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>154</v>
@@ -25830,9 +25878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>154</v>
@@ -25910,9 +25958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>154</v>
@@ -25990,9 +26038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>154</v>
@@ -26070,9 +26118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>154</v>
@@ -26150,9 +26198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>154</v>
@@ -26230,9 +26278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>154</v>
@@ -26310,9 +26358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>154</v>
@@ -26390,9 +26438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>154</v>
@@ -26470,9 +26518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>154</v>
@@ -26550,9 +26598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>154</v>
@@ -26630,9 +26678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>154</v>
@@ -26710,9 +26758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>154</v>
@@ -26790,9 +26838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>154</v>
@@ -26870,9 +26918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>154</v>
@@ -26950,9 +26998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>154</v>
@@ -27030,9 +27078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>1</v>
@@ -27110,9 +27158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>1</v>
@@ -27190,9 +27238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>1</v>
@@ -27270,9 +27318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>1</v>
@@ -27350,9 +27398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>1</v>
@@ -27430,9 +27478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A274" s="8" t="s">
-        <v>1</v>
+    <row r="274" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>1</v>
@@ -27510,9 +27558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>1</v>
@@ -27590,9 +27638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>1</v>
@@ -27670,9 +27718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>1</v>
@@ -27750,9 +27798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>1</v>
@@ -27830,9 +27878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>1</v>
@@ -27910,9 +27958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>1</v>
@@ -27990,9 +28038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>1</v>
@@ -28070,9 +28118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>1</v>
@@ -28150,9 +28198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>1</v>
@@ -28230,9 +28278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>1</v>
@@ -28310,9 +28358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>1</v>
@@ -28390,9 +28438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>1</v>
@@ -28470,9 +28518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>1</v>
@@ -28550,9 +28598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>1</v>
@@ -28630,9 +28678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>153</v>
@@ -28710,9 +28758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>153</v>
@@ -28790,9 +28838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>1</v>
@@ -28870,9 +28918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>148</v>
@@ -28950,9 +28998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>153</v>
@@ -29030,9 +29078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>1</v>
@@ -29110,9 +29158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>1</v>
@@ -29190,9 +29238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>1</v>
@@ -29270,9 +29318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>1</v>
@@ -29350,9 +29398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>1</v>
@@ -29430,9 +29478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>148</v>
@@ -29510,9 +29558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>1</v>
@@ -29590,9 +29638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>1</v>
@@ -29670,9 +29718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>1</v>
@@ -29750,9 +29798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>1</v>
@@ -29830,9 +29878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>1</v>
@@ -29910,9 +29958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>1</v>
@@ -29990,9 +30038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>1</v>
@@ -30070,9 +30118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>153</v>
@@ -30150,9 +30198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>1</v>
@@ -30230,9 +30278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>1</v>
@@ -30310,9 +30358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>1</v>
@@ -30390,9 +30438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>1</v>
@@ -30470,9 +30518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>1</v>
@@ -30550,9 +30598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A313" s="8" t="s">
-        <v>1</v>
+    <row r="313" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>1</v>
@@ -30630,9 +30678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>155</v>
+        <v>1661</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>155</v>
@@ -30710,9 +30758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>1</v>
@@ -30790,9 +30838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>1</v>
@@ -30870,9 +30918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>1</v>
@@ -30950,9 +30998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>1</v>
@@ -31030,9 +31078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>1</v>
@@ -31110,9 +31158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>1</v>
@@ -31190,9 +31238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>1</v>
@@ -31270,9 +31318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>1</v>
@@ -31350,9 +31398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>1</v>
@@ -31430,9 +31478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>1</v>
@@ -31510,9 +31558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>1</v>
@@ -31590,9 +31638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>1</v>
@@ -31670,9 +31718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>1</v>
@@ -31750,9 +31798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>1</v>
@@ -31830,9 +31878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>1</v>
@@ -31910,9 +31958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>152</v>
@@ -31990,9 +32038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>1</v>
@@ -32070,9 +32118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>152</v>
@@ -32150,9 +32198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>1</v>
@@ -32230,9 +32278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>1</v>
@@ -32310,9 +32358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>1</v>
@@ -32390,9 +32438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>151</v>
@@ -32470,9 +32518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>151</v>
@@ -32550,9 +32598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>1</v>
@@ -32630,9 +32678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="339" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>155</v>
+        <v>1661</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>155</v>
@@ -32710,9 +32758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>152</v>
@@ -32790,9 +32838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>1</v>
@@ -32870,9 +32918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="342" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A342" s="8" t="s">
-        <v>1</v>
+    <row r="342" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>1652</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>1</v>
@@ -32950,9 +32998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="343" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>1</v>
@@ -33030,9 +33078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="344" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>1</v>
@@ -33110,9 +33158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="345" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>1</v>
@@ -33190,9 +33238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="346" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>1</v>
@@ -33270,9 +33318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="347" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>152</v>
@@ -33350,9 +33398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="348" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>152</v>
@@ -33430,9 +33478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="349" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>152</v>
@@ -33510,9 +33558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="350" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>153</v>
@@ -33590,9 +33638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="351" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>151</v>
@@ -33670,9 +33718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="352" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>1</v>
@@ -33750,9 +33798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="353" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>1</v>
@@ -33830,9 +33878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="354" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>148</v>
@@ -33910,9 +33958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="355" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>1</v>
@@ -33990,9 +34038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="356" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>1</v>
@@ -34070,9 +34118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="357" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>1</v>
@@ -34150,9 +34198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="358" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>1</v>
@@ -34230,9 +34278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="359" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>1</v>
@@ -34310,9 +34358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="360" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>1</v>
@@ -34390,9 +34438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="361" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>1</v>
@@ -34470,9 +34518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="362" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>1</v>
@@ -34550,9 +34598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="363" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>153</v>
@@ -34630,9 +34678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="364" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>153</v>
@@ -34710,9 +34758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="365" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>1</v>
@@ -34790,9 +34838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="366" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>1</v>
@@ -34870,9 +34918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="367" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>153</v>
@@ -34950,9 +34998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="368" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>153</v>
@@ -35030,9 +35078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="369" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>150</v>
@@ -35110,9 +35158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="370" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>150</v>
@@ -35190,9 +35238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="371" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>150</v>
@@ -35270,9 +35318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="372" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>150</v>
@@ -35350,9 +35398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="373" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>1</v>
@@ -35430,9 +35478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="374" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>148</v>
@@ -35510,9 +35558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="375" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>148</v>
@@ -35590,9 +35638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="376" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>148</v>
@@ -35670,9 +35718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="377" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A377" s="8" t="s">
-        <v>148</v>
+    <row r="377" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>148</v>
@@ -35750,9 +35798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="378" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A378" s="8" t="s">
-        <v>148</v>
+    <row r="378" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>148</v>
@@ -35830,9 +35878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="379" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A379" s="8" t="s">
-        <v>148</v>
+    <row r="379" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>148</v>
@@ -35910,9 +35958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="380" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A380" s="8" t="s">
-        <v>148</v>
+    <row r="380" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>148</v>
@@ -35990,9 +36038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="381" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>148</v>
@@ -36070,9 +36118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="382" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A382" s="8" t="s">
-        <v>148</v>
+    <row r="382" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>148</v>
@@ -36150,9 +36198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="383" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>148</v>
@@ -36230,9 +36278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="384" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>148</v>
@@ -36310,9 +36358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="385" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A385" s="8" t="s">
-        <v>148</v>
+    <row r="385" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>148</v>
@@ -36390,9 +36438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="386" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A386" s="8" t="s">
-        <v>148</v>
+    <row r="386" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>148</v>
@@ -36470,9 +36518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="387" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>148</v>
@@ -36550,9 +36598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="388" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>148</v>
@@ -36630,9 +36678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="389" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>148</v>
@@ -36710,9 +36758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="390" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A390" s="8" t="s">
-        <v>148</v>
+    <row r="390" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>148</v>
@@ -36790,9 +36838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="391" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>148</v>
@@ -36870,9 +36918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="392" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>1</v>
@@ -36950,9 +36998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="393" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>1</v>
@@ -37030,9 +37078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="394" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>1</v>
@@ -37110,9 +37158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="395" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>1</v>
@@ -37190,9 +37238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="396" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>1</v>
@@ -37270,9 +37318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="397" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>1</v>
@@ -37350,9 +37398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="398" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>1</v>
@@ -37430,9 +37478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="399" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>1</v>
@@ -37510,9 +37558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="400" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>1</v>
@@ -37590,9 +37638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="401" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>1</v>
@@ -37670,9 +37718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="402" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>1</v>
@@ -37750,9 +37798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="403" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>151</v>
@@ -37830,9 +37878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="404" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>151</v>
+        <v>1656</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>151</v>
@@ -37910,9 +37958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="405" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>152</v>
@@ -37990,9 +38038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="406" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>148</v>
@@ -38070,9 +38118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="407" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>148</v>
@@ -38150,9 +38198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="408" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>148</v>
@@ -38230,9 +38278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="409" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>148</v>
@@ -38310,9 +38358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="410" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>148</v>
@@ -38390,9 +38438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="411" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>148</v>
@@ -38470,9 +38518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="412" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>156</v>
+        <v>1662</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>156</v>
@@ -38550,9 +38598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="413" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>148</v>
@@ -38630,9 +38678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="414" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>148</v>
@@ -38710,9 +38758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="415" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>156</v>
+        <v>1662</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>156</v>
@@ -38790,9 +38838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="416" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>148</v>
@@ -38870,9 +38918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="417" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>148</v>
@@ -38950,9 +38998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="418" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>148</v>
@@ -39030,9 +39078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="419" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>1</v>
@@ -39110,9 +39158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="420" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>148</v>
@@ -39190,9 +39238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="421" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>148</v>
@@ -39270,9 +39318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="422" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>148</v>
@@ -39350,9 +39398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="423" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>148</v>
@@ -39430,9 +39478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="424" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>148</v>
@@ -39510,9 +39558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="425" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>148</v>
@@ -39590,9 +39638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="426" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>148</v>
@@ -39670,9 +39718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="427" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>148</v>
@@ -39750,9 +39798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="428" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>148</v>
@@ -39830,9 +39878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="429" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>148</v>
@@ -39910,9 +39958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="430" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>148</v>
@@ -39990,9 +40038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="431" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>148</v>
@@ -40070,9 +40118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="432" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>148</v>
@@ -40150,9 +40198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="433" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A433" s="8" t="s">
-        <v>148</v>
+    <row r="433" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B433" s="8" t="s">
         <v>148</v>
@@ -40230,9 +40278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="434" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>150</v>
@@ -40310,9 +40358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="435" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>148</v>
@@ -40390,9 +40438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="436" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>150</v>
@@ -40470,9 +40518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="437" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>150</v>
@@ -40550,9 +40598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="438" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>150</v>
@@ -40630,9 +40678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="439" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>150</v>
@@ -40710,9 +40758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="440" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>150</v>
@@ -40790,9 +40838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="441" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>150</v>
@@ -40870,9 +40918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="442" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>150</v>
@@ -40950,9 +40998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="443" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>150</v>
@@ -41030,9 +41078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="444" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>150</v>
@@ -41110,9 +41158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="445" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>150</v>
@@ -41190,9 +41238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="446" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>150</v>
@@ -41270,9 +41318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="447" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>150</v>
@@ -41350,9 +41398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="448" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>150</v>
@@ -41430,9 +41478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="449" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>150</v>
@@ -41510,9 +41558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="450" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>150</v>
@@ -41590,9 +41638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="451" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>150</v>
@@ -41670,9 +41718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="452" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>150</v>
@@ -41750,9 +41798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="453" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>150</v>
@@ -41830,9 +41878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="454" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>150</v>
@@ -41910,9 +41958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="455" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>150</v>
@@ -41990,9 +42038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="456" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>157</v>
+        <v>1663</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>157</v>
@@ -42070,9 +42118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="457" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>150</v>
@@ -42150,9 +42198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="458" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>148</v>
@@ -42230,9 +42278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="459" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>148</v>
@@ -42310,9 +42358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="460" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>148</v>
@@ -42390,9 +42438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="461" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>1</v>
@@ -42470,9 +42518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="462" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>148</v>
@@ -42550,9 +42598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="463" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>148</v>
@@ -42630,9 +42678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="464" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>148</v>
@@ -42710,9 +42758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="465" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A465" s="8" t="s">
-        <v>148</v>
+    <row r="465" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>1654</v>
       </c>
       <c r="B465" s="8" t="s">
         <v>148</v>
@@ -42790,9 +42838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="466" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>150</v>
@@ -42870,9 +42918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="467" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>1</v>
@@ -42950,9 +42998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="468" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>1</v>
@@ -43030,9 +43078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="469" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>150</v>
@@ -43110,9 +43158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="470" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>1</v>
@@ -43190,9 +43238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="471" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>1</v>
@@ -43270,9 +43318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="472" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>1</v>
@@ -43350,9 +43398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="473" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>1</v>
@@ -43430,9 +43478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="474" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>1</v>
@@ -43510,9 +43558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="475" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>1</v>
@@ -43590,9 +43638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="476" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>1</v>
@@ -43670,9 +43718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="477" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>1</v>
@@ -43750,9 +43798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="478" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>1</v>
@@ -43830,9 +43878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="479" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>1</v>
@@ -43910,9 +43958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="480" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>1</v>
@@ -43990,9 +44038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="481" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>1</v>
@@ -44070,9 +44118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="482" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>150</v>
@@ -44150,9 +44198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="483" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>152</v>
@@ -44230,9 +44278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="484" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>152</v>
@@ -44310,9 +44358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="485" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>152</v>
@@ -44390,9 +44438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="486" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>152</v>
@@ -44470,9 +44518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="487" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>1</v>
@@ -44550,9 +44598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="488" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>152</v>
@@ -44630,9 +44678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="489" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>152</v>
@@ -44710,9 +44758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="490" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>152</v>
@@ -44790,9 +44838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="491" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>152</v>
@@ -44870,9 +44918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="492" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>152</v>
@@ -44950,9 +44998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="493" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>152</v>
@@ -45030,9 +45078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="494" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>158</v>
+        <v>1664</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>158</v>
@@ -45110,9 +45158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="495" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>155</v>
+        <v>1661</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>155</v>
@@ -45190,9 +45238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="496" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>1</v>
@@ -45270,9 +45318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="497" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>1</v>
@@ -45350,9 +45398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="498" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>1</v>
@@ -45430,9 +45478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="499" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>1</v>
@@ -45510,9 +45558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="500" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>1</v>
@@ -45590,9 +45638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="501" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>1</v>
@@ -45670,9 +45718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="502" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>153</v>
+        <v>1660</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>153</v>
@@ -45750,9 +45798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="503" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>1</v>
@@ -45830,9 +45878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="504" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>1</v>
@@ -45910,9 +45958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="505" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>1</v>
@@ -45990,9 +46038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="506" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>1</v>
@@ -46070,9 +46118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="507" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>152</v>
@@ -46150,9 +46198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="508" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>1</v>
@@ -46230,9 +46278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="509" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>1</v>
@@ -46310,9 +46358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="510" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>1</v>
@@ -46390,9 +46438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="511" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>1</v>
@@ -46470,9 +46518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="512" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>159</v>
+        <v>1665</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>159</v>
@@ -46550,9 +46598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="513" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>160</v>
+        <v>1666</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>160</v>
@@ -46630,9 +46678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="514" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>160</v>
+        <v>1666</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>160</v>
@@ -46710,9 +46758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="515" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>159</v>
+        <v>1665</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>159</v>
@@ -46790,9 +46838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="516" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>160</v>
+        <v>1666</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>160</v>
@@ -46870,9 +46918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="517" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>160</v>
+        <v>1666</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>160</v>
@@ -46950,9 +46998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="518" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>154</v>
@@ -47030,9 +47078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="519" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>154</v>
@@ -47110,9 +47158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="520" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>154</v>
@@ -47190,9 +47238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="521" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>154</v>
@@ -47270,9 +47318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="522" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>154</v>
@@ -47350,9 +47398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="523" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>154</v>
@@ -47430,9 +47478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="524" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>154</v>
@@ -47510,9 +47558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="525" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>154</v>
@@ -47590,9 +47638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="526" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>154</v>
@@ -47670,9 +47718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="527" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>154</v>
@@ -47750,9 +47798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="528" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>154</v>
@@ -47830,9 +47878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="529" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>154</v>
@@ -47910,9 +47958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="530" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>154</v>
@@ -47990,9 +48038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="531" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>154</v>
@@ -48070,9 +48118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="532" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>154</v>
@@ -48150,9 +48198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="533" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>154</v>
@@ -48230,9 +48278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="534" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>154</v>
@@ -48310,9 +48358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="535" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>154</v>
@@ -48390,9 +48438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="536" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>154</v>
@@ -48470,9 +48518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="537" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>154</v>
@@ -48550,9 +48598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="538" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>154</v>
@@ -48630,9 +48678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="539" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>154</v>
@@ -48710,9 +48758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="540" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>155</v>
+        <v>1661</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>155</v>
@@ -48790,9 +48838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="541" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
-        <v>161</v>
+        <v>1667</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>161</v>
@@ -48870,9 +48918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="542" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>148</v>
@@ -48950,9 +48998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="543" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>150</v>
@@ -49030,9 +49078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="544" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>152</v>
@@ -49110,9 +49158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="545" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>1</v>
@@ -49190,9 +49238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="546" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>1</v>
@@ -49270,9 +49318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="547" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>148</v>
@@ -49350,9 +49398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="548" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>148</v>
@@ -49430,9 +49478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="549" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>1</v>
@@ -49510,9 +49558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="550" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>148</v>
@@ -49590,9 +49638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="551" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>150</v>
@@ -49670,9 +49718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="552" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>155</v>
+        <v>1661</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>155</v>
@@ -49750,9 +49798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="553" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>152</v>
+        <v>1659</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>152</v>
@@ -49830,9 +49878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="554" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>161</v>
+        <v>1667</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>161</v>
@@ -49910,9 +49958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="555" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>155</v>
+        <v>1661</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>155</v>
@@ -49990,9 +50038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="556" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>1</v>
@@ -50070,9 +50118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="557" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>154</v>
+        <v>1657</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>154</v>
@@ -50150,9 +50198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="558" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>1</v>
@@ -50230,9 +50278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="559" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>1</v>
@@ -50310,9 +50358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="560" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>1</v>
@@ -50390,9 +50438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="561" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>1</v>
@@ -50470,9 +50518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="562" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>1</v>
@@ -50550,9 +50598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="563" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>150</v>
@@ -50630,9 +50678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="564" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>150</v>
@@ -50710,9 +50758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="565" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>1</v>
@@ -50790,9 +50838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="566" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>1</v>
@@ -50870,9 +50918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="567" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>1</v>
@@ -50950,9 +50998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="568" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>148</v>
@@ -51030,9 +51078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="569" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>148</v>
@@ -51110,9 +51158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="570" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>148</v>
@@ -51190,9 +51238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="571" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>148</v>
@@ -51270,9 +51318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="572" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>148</v>
@@ -51350,9 +51398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="573" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>148</v>
@@ -51430,9 +51478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="574" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>148</v>
@@ -51510,9 +51558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="575" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>148</v>
@@ -51590,9 +51638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="576" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>148</v>
@@ -51670,9 +51718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="577" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>148</v>
@@ -51750,9 +51798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="578" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
-        <v>149</v>
+        <v>1655</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>149</v>
@@ -51830,9 +51878,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="579" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>148</v>
@@ -51910,9 +51958,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="580" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>1</v>
@@ -51990,9 +52038,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="581" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>1</v>
@@ -52070,9 +52118,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="582" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>1</v>
@@ -52150,9 +52198,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="583" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>1</v>
@@ -52230,9 +52278,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="584" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>1</v>
@@ -52310,9 +52358,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="585" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>148</v>
@@ -52390,9 +52438,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="586" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
-        <v>148</v>
+        <v>1654</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>148</v>
@@ -52470,9 +52518,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="587" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>1</v>
@@ -52550,9 +52598,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="588" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>1</v>
@@ -52630,9 +52678,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="589" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>1</v>
@@ -52710,9 +52758,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="590" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>150</v>
@@ -52790,9 +52838,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="591" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>1</v>
@@ -52870,9 +52918,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="592" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>1</v>
@@ -52950,9 +52998,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="593" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>1</v>
@@ -53030,9 +53078,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="594" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>150</v>
@@ -53110,9 +53158,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="595" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>1</v>
@@ -53190,9 +53238,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="596" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>1</v>
@@ -53270,9 +53318,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="597" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>1</v>
@@ -53350,9 +53398,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="598" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>1</v>
@@ -53430,9 +53478,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="599" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>1</v>
@@ -53510,9 +53558,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="600" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>1</v>
@@ -53590,9 +53638,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="601" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>1</v>
+        <v>1652</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>1</v>
@@ -53670,9 +53718,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="602" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>150</v>
@@ -53750,9 +53798,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="603" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
-        <v>150</v>
+        <v>1658</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>150</v>
@@ -53840,5 +53888,6 @@
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reference/Sri Balaji/ItemList.xlsx
+++ b/reference/Sri Balaji/ItemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MetricProject\reference\Sri Balaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE2296-6B77-41FC-B53D-9119EA8AF5AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FDD819-36EF-4624-B67D-5C68549E398E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{1C85A252-400C-4997-9E9C-F2FFB6F92724}"/>
   </bookViews>
@@ -5127,7 +5127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5189,6 +5189,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5507,8 +5513,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="X294" workbookViewId="0">
+      <selection activeCell="AF302" sqref="AF302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,7 +5532,7 @@
     <col min="11" max="11" width="12.140625" style="3" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="19" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19" style="23" customWidth="1"/>
     <col min="15" max="15" width="18.140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="23.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" style="3" customWidth="1"/>
@@ -5587,7 +5593,7 @@
       <c r="M1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="22" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="13" t="s">
